--- a/web/static/template_data.xlsx
+++ b/web/static/template_data.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>email</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -55,10 +58,16 @@
     <t>postal</t>
   </si>
   <si>
+    <t>keywords</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
     <t>long_description</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -66,7 +75,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +90,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -90,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,17 +128,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,27 +461,29 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -490,11 +526,68 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
